--- a/medicine/Enfance/Les_Six_Compagnons_et_la_Brigade_volante/Les_Six_Compagnons_et_la_Brigade_volante.xlsx
+++ b/medicine/Enfance/Les_Six_Compagnons_et_la_Brigade_volante/Les_Six_Compagnons_et_la_Brigade_volante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Six Compagnons et la Brigade volante est le 22e roman, sur 49 titres publiés, de la série Les Six Compagnons créée par Paul-Jacques Bonzon.
@@ -514,7 +526,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Six Compagnons
 Tidou
@@ -553,7 +567,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman de 155 pages est divisé en 14 chapitres. Le résumé ci-dessous est basé sur l'édition du roman parue en 1972 dans la Bibliothèque verte.
 C'est la consternation au sein des Compagnons lorsque Kafi est atteint d'un coup de feu au milieu de la nuit. Ils suspectent la participation d'une bande qui s'est installée non loin d'eux en forêt. Désormais, il s'agit non seulement de venger Kafi, mais aussi de déjouer un complot compromettant la sécurité même de la France.
